--- a/Laporan wisata.xlsx
+++ b/Laporan wisata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>No</t>
   </si>
@@ -35,22 +35,43 @@
     <t>TANGGAL DIBUAT</t>
   </si>
   <si>
-    <t>KEPENTINGAN</t>
-  </si>
-  <si>
-    <t>2024-11-16</t>
+    <t>2024-12-11</t>
+  </si>
+  <si>
+    <t>confirmed</t>
+  </si>
+  <si>
+    <t>2024-12-11 11:25:21</t>
+  </si>
+  <si>
+    <t>2024-12-01</t>
   </si>
   <si>
     <t>pending</t>
   </si>
   <si>
-    <t>2024-11-15 14:07:36</t>
-  </si>
-  <si>
-    <t>2024-11-02</t>
-  </si>
-  <si>
-    <t>2024-11-16 11:50:04</t>
+    <t>2024-12-01 19:59:20</t>
+  </si>
+  <si>
+    <t>2024-12-01 20:01:16</t>
+  </si>
+  <si>
+    <t>2024-11-28</t>
+  </si>
+  <si>
+    <t>2024-11-24 19:50:35</t>
+  </si>
+  <si>
+    <t>2024-11-24</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>2024-11-24 19:32:36</t>
+  </si>
+  <si>
+    <t>2024-11-24 19:49:25</t>
   </si>
 </sst>
 </file>
@@ -390,7 +411,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -398,7 +419,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -417,48 +438,125 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>10000.0</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>20.0</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>250000.0</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>100.0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>40.0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>138.0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>40.0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>138.0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Laporan wisata.xlsx
+++ b/Laporan wisata.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>No</t>
   </si>
@@ -35,43 +35,19 @@
     <t>TANGGAL DIBUAT</t>
   </si>
   <si>
-    <t>2024-12-11</t>
+    <t>2024-12-12</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>2024-12-12 10:56:03</t>
   </si>
   <si>
     <t>confirmed</t>
   </si>
   <si>
-    <t>2024-12-11 11:25:21</t>
-  </si>
-  <si>
-    <t>2024-12-01</t>
-  </si>
-  <si>
-    <t>pending</t>
-  </si>
-  <si>
-    <t>2024-12-01 19:59:20</t>
-  </si>
-  <si>
-    <t>2024-12-01 20:01:16</t>
-  </si>
-  <si>
-    <t>2024-11-28</t>
-  </si>
-  <si>
-    <t>2024-11-24 19:50:35</t>
-  </si>
-  <si>
-    <t>2024-11-24</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>2024-11-24 19:32:36</t>
-  </si>
-  <si>
-    <t>2024-11-24 19:49:25</t>
+    <t>2024-12-12 11:16:37</t>
   </si>
 </sst>
 </file>
@@ -411,7 +387,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,10 +423,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>10000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -464,99 +440,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>100000.0</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-      <c r="D3">
-        <v>250000.0</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>40.0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>138.0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>40.0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>138.0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
